--- a/Excel/HKPL_plant_day.xlsx
+++ b/Excel/HKPL_plant_day.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel-Files\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2297D3C-7B42-4C66-9251-7C12452CD483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CA1ECB-1877-4C55-B8D8-7189D423742E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{6FBCBB72-0FCD-4230-8DE8-54361A8D6882}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{6FBCBB72-0FCD-4230-8DE8-54361A8D6882}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,17 +30,29 @@
     <t>PLANT  REPORT  (DAY WISE)</t>
   </si>
   <si>
-    <t>Hare Krishna Steel Tube &amp; Pipes Pvt Ltd (DC Capacity : 6 MW)</t>
+    <t>ADDRESS  - Chaurenga, Simga</t>
   </si>
   <si>
-    <t>ADDRESS  - Chaurenga, Simga</t>
+    <r>
+      <t xml:space="preserve">Hare Krishna Steel Tube &amp; Pipes Pvt Ltd </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t>(DC Capacity : 6 MW)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +99,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -444,14 +463,14 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F5"/>
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -504,7 +523,7 @@
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
